--- a/test-code-generator/Evaluation/QualitativeEvaluation/TemplateExperts/UC3.4.4_TC1/3/UC3.4.4_TC1.evaluation.xlsx
+++ b/test-code-generator/Evaluation/QualitativeEvaluation/TemplateExperts/UC3.4.4_TC1/3/UC3.4.4_TC1.evaluation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="47">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -261,6 +261,9 @@
       </rPr>
       <t>with the correct status "passed" or "failed"</t>
     </r>
+  </si>
+  <si>
+    <t>Missing logic to check the sheet status is active</t>
   </si>
   <si>
     <r>
@@ -839,16 +842,16 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <u/>
       <sz val="15.0"/>
       <color rgb="FF0E2841"/>
       <name val="Aptos Narrow"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -885,7 +888,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -912,9 +915,24 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -4354,7 +4372,9 @@
       <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="C5" s="6"/>
       <c r="D5" s="10" t="s">
         <v>9</v>
@@ -4364,21 +4384,49 @@
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="C6" s="8"/>
       <c r="D6" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="10" t="s">
+      <c r="B7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>14</v>
       </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="2"/>
@@ -4412,7 +4460,9 @@
       <c r="A11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="C11" s="8"/>
       <c r="D11" s="10" t="s">
         <v>18</v>
@@ -4422,17 +4472,21 @@
       <c r="A12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="C12" s="8"/>
       <c r="D12" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="C13" s="8"/>
       <c r="D13" s="10" t="s">
         <v>22</v>
@@ -4442,20 +4496,24 @@
       <c r="A14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="C14" s="8"/>
       <c r="D14" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" ht="78.0" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
-      <c r="B15" s="8"/>
+      <c r="B15" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="C15" s="8"/>
       <c r="D15" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
@@ -7494,7 +7552,9 @@
       <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="C5" s="6"/>
       <c r="D5" s="10" t="s">
         <v>9</v>
@@ -7504,7 +7564,9 @@
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="C6" s="8"/>
       <c r="D6" s="10" t="s">
         <v>11</v>
@@ -7514,7 +7576,9 @@
       <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="C7" s="8"/>
       <c r="D7" s="10" t="s">
         <v>14</v>
@@ -7552,7 +7616,9 @@
       <c r="A11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="C11" s="8"/>
       <c r="D11" s="10" t="s">
         <v>18</v>
@@ -7562,17 +7628,21 @@
       <c r="A12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="C12" s="8"/>
       <c r="D12" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="C13" s="8"/>
       <c r="D13" s="10" t="s">
         <v>22</v>
@@ -7585,17 +7655,19 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" ht="78.0" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
-      <c r="B15" s="8"/>
+      <c r="B15" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="C15" s="8"/>
       <c r="D15" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
@@ -10612,7 +10684,7 @@
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
     </row>
@@ -10705,7 +10777,7 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
@@ -10725,17 +10797,17 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" ht="78.0" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
@@ -13731,43 +13803,43 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>39</v>
+      <c r="B1" s="18" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>40</v>
+      <c r="B2" s="18" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="13" t="s">
+      <c r="B3" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="13" t="s">
+    </row>
+    <row r="4" ht="14.25" customHeight="1">
+      <c r="A4" s="18" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="13" t="s">
+      <c r="B4" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="13" t="s">
+    </row>
+    <row r="5" ht="14.25" customHeight="1">
+      <c r="A5" s="18" t="s">
         <v>45</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1"/>
